--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_Block Bootstrapping_Lineal_Estacionario_ARMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0.949922468317086</v>
+        <v>0.907210222142919</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0.9466535455977692</v>
+        <v>0.8548487170623995</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.901649210121425</v>
+        <v>0.9049089908192756</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.9559532634470479</v>
+        <v>0.8942725799144582</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>1.02468787565879</v>
+        <v>0.8811661466316971</v>
       </c>
     </row>
   </sheetData>
